--- a/data_quarter/zb/人民生活/外出务工情况.xlsx
+++ b/data_quarter/zb/人民生活/外出务工情况.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -461,33 +461,33 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17392</v>
+        <v>17111</v>
       </c>
       <c r="C3" t="n">
-        <v>2542</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17111</v>
+        <v>17392</v>
       </c>
       <c r="C4" t="n">
-        <v>2477</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -500,33 +500,33 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17561</v>
+        <v>17418</v>
       </c>
       <c r="C6" t="n">
-        <v>2797</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17418</v>
+        <v>17561</v>
       </c>
       <c r="C7" t="n">
-        <v>2733</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -539,33 +539,33 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17554</v>
+        <v>17436</v>
       </c>
       <c r="C9" t="n">
-        <v>3052</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17436</v>
+        <v>17554</v>
       </c>
       <c r="C10" t="n">
-        <v>3002</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -578,33 +578,33 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17649</v>
+        <v>17509</v>
       </c>
       <c r="C12" t="n">
-        <v>3232</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17509</v>
+        <v>17649</v>
       </c>
       <c r="C13" t="n">
-        <v>3202</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -617,33 +617,33 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17969</v>
+        <v>17873</v>
       </c>
       <c r="C15" t="n">
-        <v>3459</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17873</v>
+        <v>17969</v>
       </c>
       <c r="C16" t="n">
-        <v>3405</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -656,33 +656,33 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18135</v>
+        <v>18022</v>
       </c>
       <c r="C18" t="n">
-        <v>3710</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18022</v>
+        <v>18135</v>
       </c>
       <c r="C19" t="n">
-        <v>3661</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -695,33 +695,33 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>18336</v>
+        <v>18248</v>
       </c>
       <c r="C21" t="n">
-        <v>3952</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>18248</v>
+        <v>18336</v>
       </c>
       <c r="C22" t="n">
-        <v>3913</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2020年第一季度</t>
+          <t>2020年A</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -734,33 +734,33 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2020年第三季度</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>17952</v>
+        <v>17752</v>
       </c>
       <c r="C24" t="n">
-        <v>4035</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2020年第二季度</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>17752</v>
+        <v>17952</v>
       </c>
       <c r="C25" t="n">
-        <v>3649</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2021年第一季度</t>
+          <t>2021年A</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -773,27 +773,27 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2021年第三季度</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>18303</v>
+        <v>18233</v>
       </c>
       <c r="C27" t="n">
-        <v>4454</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2021年第二季度</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18233</v>
+        <v>18303</v>
       </c>
       <c r="C28" t="n">
-        <v>4290</v>
+        <v>4454</v>
       </c>
     </row>
   </sheetData>

--- a/data_quarter/zb/人民生活/外出务工情况.xlsx
+++ b/data_quarter/zb/人民生活/外出务工情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,27 +461,27 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17111</v>
+        <v>17392</v>
       </c>
       <c r="C3" t="n">
-        <v>2477</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17392</v>
+        <v>17111</v>
       </c>
       <c r="C4" t="n">
-        <v>2542</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="5">
@@ -500,27 +500,27 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17418</v>
+        <v>17561</v>
       </c>
       <c r="C6" t="n">
-        <v>2733</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17561</v>
+        <v>17418</v>
       </c>
       <c r="C7" t="n">
-        <v>2797</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="8">
@@ -539,27 +539,27 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17436</v>
+        <v>17554</v>
       </c>
       <c r="C9" t="n">
-        <v>3002</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17554</v>
+        <v>17436</v>
       </c>
       <c r="C10" t="n">
-        <v>3052</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="11">
@@ -578,27 +578,27 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2016年B</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17509</v>
+        <v>17649</v>
       </c>
       <c r="C12" t="n">
-        <v>3202</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2016年C</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17649</v>
+        <v>17509</v>
       </c>
       <c r="C13" t="n">
-        <v>3232</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="14">
@@ -617,27 +617,27 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2017年B</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17873</v>
+        <v>17969</v>
       </c>
       <c r="C15" t="n">
-        <v>3405</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2017年C</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17969</v>
+        <v>17873</v>
       </c>
       <c r="C16" t="n">
-        <v>3459</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="17">
@@ -656,27 +656,27 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2018年B</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18022</v>
+        <v>18135</v>
       </c>
       <c r="C18" t="n">
-        <v>3661</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2018年C</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18135</v>
+        <v>18022</v>
       </c>
       <c r="C19" t="n">
-        <v>3710</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="20">
@@ -695,27 +695,27 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>18248</v>
+        <v>18336</v>
       </c>
       <c r="C21" t="n">
-        <v>3913</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>18336</v>
+        <v>18248</v>
       </c>
       <c r="C22" t="n">
-        <v>3952</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="23">
@@ -734,27 +734,27 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2020年B</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>17752</v>
+        <v>17952</v>
       </c>
       <c r="C24" t="n">
-        <v>3649</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2020年C</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>17952</v>
+        <v>17752</v>
       </c>
       <c r="C25" t="n">
-        <v>4035</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="26">
@@ -773,27 +773,27 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2021年B</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>18233</v>
+        <v>18303</v>
       </c>
       <c r="C27" t="n">
-        <v>4290</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2021年C</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18303</v>
+        <v>18233</v>
       </c>
       <c r="C28" t="n">
-        <v>4454</v>
+        <v>4290</v>
       </c>
     </row>
   </sheetData>
